--- a/tests/test_paklijsten/paklijst2.xlsx
+++ b/tests/test_paklijsten/paklijst2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\rectangle_packing\test_paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE3F7BB-5F30-482E-9B92-998391186411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82361001-BB17-428F-BF9F-0F0927782D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
   <si>
     <t>Aantal</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Batch/Coupage</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -918,28 +921,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125"/>
-    <col min="2" max="2" width="6.140625"/>
-    <col min="3" max="3" width="53.85546875"/>
+    <col min="1" max="1" width="6.5546875"/>
+    <col min="2" max="2" width="6.109375"/>
+    <col min="3" max="3" width="53.88671875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.85546875"/>
-    <col min="6" max="6" width="11.5703125"/>
-    <col min="7" max="7" width="14.28515625"/>
-    <col min="8" max="8" width="13.5703125"/>
-    <col min="9" max="9" width="27.85546875"/>
-    <col min="10" max="10" width="10.85546875"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col min="5" max="5" width="6.88671875"/>
+    <col min="6" max="6" width="11.5546875"/>
+    <col min="7" max="7" width="14.33203125"/>
+    <col min="8" max="8" width="13.5546875"/>
+    <col min="9" max="9" width="27.88671875"/>
+    <col min="10" max="10" width="10.88671875"/>
+    <col min="11" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +976,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1014,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1043,8 +1052,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1078,92 +1090,95 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
@@ -1178,21 +1193,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.7109375" style="3"/>
-    <col min="3" max="3" width="42.5703125" style="3"/>
-    <col min="4" max="4" width="9.42578125" style="4"/>
-    <col min="5" max="5" width="8.42578125" style="3"/>
-    <col min="6" max="6" width="12.85546875" style="3"/>
-    <col min="7" max="7" width="14.7109375" style="5"/>
-    <col min="8" max="8" width="14.42578125" style="5"/>
-    <col min="9" max="9" width="27.140625" style="3"/>
+    <col min="2" max="2" width="15.6640625" style="3"/>
+    <col min="3" max="3" width="42.5546875" style="3"/>
+    <col min="4" max="4" width="9.44140625" style="4"/>
+    <col min="5" max="5" width="8.44140625" style="3"/>
+    <col min="6" max="6" width="12.88671875" style="3"/>
+    <col min="7" max="7" width="14.6640625" style="5"/>
+    <col min="8" max="8" width="14.44140625" style="5"/>
+    <col min="9" max="9" width="27.109375" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +1977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -2172,7 +2187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -2277,7 +2292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst2.xlsx
+++ b/tests/test_paklijsten/paklijst2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\rectangle_packing\test_paklijsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE3F7BB-5F30-482E-9B92-998391186411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B75C32-0456-47E4-9982-DE1B74DDC411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-13068" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
   <si>
     <t>Aantal</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Batch/Coupage</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +942,7 @@
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +976,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1014,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1043,8 +1052,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1078,41 +1090,44 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">

--- a/tests/test_paklijsten/paklijst2.xlsx
+++ b/tests/test_paklijsten/paklijst2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82361001-BB17-428F-BF9F-0F0927782D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCDE01-5B5C-40D1-8CE4-1899AE1B5B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
     <sheet name="Paklijst" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="112">
   <si>
     <t>Aantal</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Materiaal</t>
+  </si>
+  <si>
+    <t>Artikelnaam</t>
   </si>
 </sst>
 </file>
@@ -921,28 +924,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875"/>
-    <col min="2" max="2" width="6.109375"/>
-    <col min="3" max="3" width="53.88671875"/>
+    <col min="1" max="1" width="6.5703125"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="53.85546875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.88671875"/>
-    <col min="6" max="6" width="11.5546875"/>
-    <col min="7" max="7" width="14.33203125"/>
-    <col min="8" max="8" width="13.5546875"/>
-    <col min="9" max="9" width="27.88671875"/>
-    <col min="10" max="10" width="10.88671875"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="6.85546875"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="14.28515625"/>
+    <col min="8" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="27.85546875"/>
+    <col min="10" max="10" width="10.85546875"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +982,11 @@
       <c r="L1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1023,11 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1064,11 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1093,92 +1105,95 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
@@ -1193,21 +1208,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.6640625" style="3"/>
-    <col min="3" max="3" width="42.5546875" style="3"/>
-    <col min="4" max="4" width="9.44140625" style="4"/>
-    <col min="5" max="5" width="8.44140625" style="3"/>
-    <col min="6" max="6" width="12.88671875" style="3"/>
-    <col min="7" max="7" width="14.6640625" style="5"/>
-    <col min="8" max="8" width="14.44140625" style="5"/>
-    <col min="9" max="9" width="27.109375" style="3"/>
+    <col min="2" max="2" width="15.7109375" style="3"/>
+    <col min="3" max="3" width="42.5703125" style="3"/>
+    <col min="4" max="4" width="9.42578125" style="4"/>
+    <col min="5" max="5" width="8.42578125" style="3"/>
+    <col min="6" max="6" width="12.85546875" style="3"/>
+    <col min="7" max="7" width="14.7109375" style="5"/>
+    <col min="8" max="8" width="14.42578125" style="5"/>
+    <col min="9" max="9" width="27.140625" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -1837,7 +1852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst2.xlsx
+++ b/tests/test_paklijsten/paklijst2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DCDE01-5B5C-40D1-8CE4-1899AE1B5B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62090C9-1D8E-49F4-8CDE-E82DA18D0CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="113">
   <si>
     <t>Aantal</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Artikelnaam</t>
+  </si>
+  <si>
+    <t>Soort</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
         <v>110</v>
